--- a/medicine/Mort/Cimetière_de_les_Corts/Cimetière_de_les_Corts.xlsx
+++ b/medicine/Mort/Cimetière_de_les_Corts/Cimetière_de_les_Corts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_les_Corts</t>
+          <t>Cimetière_de_les_Corts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de les Corts est un cimetière monumental de la ville de Barcelone.
 Géré par la mairie de Barcelone, il est situé dans le district de Les Corts.
-Connu pour son style moderniste[1], il est l'un des cimetières remarquables de la ville[2].
+Connu pour son style moderniste, il est l'un des cimetières remarquables de la ville.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_les_Corts</t>
+          <t>Cimetière_de_les_Corts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est desservi par la station de métro Les Corts[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est desservi par la station de métro Les Corts.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_les_Corts</t>
+          <t>Cimetière_de_les_Corts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prudenci Bertrana (1867-1941), écrivain et journaliste, personnalité du modernisme catalan[4];
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prudenci Bertrana (1867-1941), écrivain et journaliste, personnalité du modernisme catalan;
 Frederic Marès (1893-1991), sculpteur et collectionneur d'art;
 Roser Coscolla i Ferrer (1903-1991), actrice;
 Agustí Centelles (1909-1985), photographe;
